--- a/data/30 subsample - contact area vs powder area 12-12-2019.xlsx
+++ b/data/30 subsample - contact area vs powder area 12-12-2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cenmk\OneDrive - University of Leeds\Documents\HECOIRA\Surface To Hand Transfer\Fluorescent Powder\Data\Current\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcofking/Documents/GitHub/yi_contact_expt/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_CDB2413CCF2A91319CD60A7019AACF52EDF030A5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F524C66D-4793-B149-A89E-8235BF96C28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="14145" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -200,7 +200,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -351,7 +351,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1500,6 +1500,1926 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SurfaceArea</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.5117524807540321E-3"/>
+                  <c:y val="0.45593370521779408"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>67.572999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.488</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.951000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.396000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.654000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.298000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.628</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72.623000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>82.409000000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45.62</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>105.58</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46.936999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58.292999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>84.891999999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38.56</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59.155000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>53.707999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46.712000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>84.537000000000006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>55.893000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25.053000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>57.962000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>57.406999999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>69.177999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.835999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>85.838999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>127.82599999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41.536999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30.184999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>49.661000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43.951000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>81.742000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45.725999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42.238</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>55.764000000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>22.396999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>64.891000000000005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>79.578000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>50.039000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>71.977999999999994</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>24.004999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>34.972000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>67.323999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46.564999999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>28.806000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>30.065999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>21.782</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43.262999999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>110.059</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>51.255000000000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27.76</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55.643999999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>60.125</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>84.299000000000007</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>32.293999999999997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>65.564999999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>129.05199999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>69.933000000000007</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>49.015000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63.783000000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>36.557000000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>63.426000000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>48.555</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>38.753</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>70.900999999999996</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>32.649000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>74.088999999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>52.478000000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>63.529000000000003</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>76.078999999999994</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.4329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>36.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>52.661999999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>81.048000000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>50.395000000000003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>64.881</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>30.968</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>70.313999999999993</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>46.616999999999997</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>64.423000000000002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>29.341999999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>50.957000000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>55.558</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>37.832999999999998</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>30.890999999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>78.478999999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>95.656000000000006</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>52.59</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>35.234000000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>49.115000000000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>30.350999999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>37.505000000000003</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>30.335000000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>41.732999999999997</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>57.555999999999997</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>21.213999999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>57.588000000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>83.382000000000005</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>80.242000000000004</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>85.626000000000005</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>20.251999999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>26.315000000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>57.933999999999997</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>101.946</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>48.186</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>35.332000000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>19.417999999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>59.01</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>60.668999999999997</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>63.468000000000004</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>21.693000000000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>55.661000000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>47.287999999999997</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>55.029000000000003</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>20.928999999999998</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>78.656000000000006</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>118.535</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>61.237000000000002</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>46.658999999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>39.58</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>34.127000000000002</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>46.591000000000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>45.588000000000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>43.642000000000003</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>77.126999999999995</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>30.81</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>69.677999999999997</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>61.78</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>84.337000000000003</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>95.271000000000001</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>15.247999999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>28.946999999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>42.720999999999997</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>51.481999999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>50.747</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>41.143000000000001</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>28.593</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>55.758000000000003</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>63.14</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>57.238</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>37.889000000000003</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>39.823999999999998</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>65.028000000000006</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>63.26</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>22.13</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>72.222999999999999</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>88.001999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>82.863</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.411000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.351</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132.54900000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>175.47499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95.09</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.445999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>105.875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63.118000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>119.233</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>141.62299999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>73.204999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>159.52699999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35.088999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80.331000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>77.292000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>131.119</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>103.114</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>84.150999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>91.727999999999994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>110.953</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>171.166</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>105.76900000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48.512</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>113.167</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>101.767</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>132.22300000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>74.072000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>108.983</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>194.964</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>63.975000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>82.317999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>88.566999999999993</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>130.93700000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>193.75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>98.156999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>110.252</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>85.272000000000006</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>73.349000000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>132.97800000000001</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="#,##0">
+                  <c:v>143.87799999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>92.418000000000006</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>129.91300000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>72.076999999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>91.230999999999995</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>85.034999999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>142.291</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>97.754999999999995</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>81.275999999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>81.850999999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>94.751999999999995</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>191.761</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>85.683999999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>68.902000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>88.903999999999996</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>104.96299999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>122.227</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>83.78</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>92.569000000000003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>198.84899999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>90.055999999999997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>93.772000000000006</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>97.786000000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>142.20500000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>189.702</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>113.3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>110.348</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>141.661</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>92.569000000000003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>139.441</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>124.807</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>104.59099999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>131.74299999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>34.862000000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>99.021000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>81.167000000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>160.374</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>113.455</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>99.924999999999997</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80.38</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>150.99600000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>154.72399999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>115.971</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>56.582000000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>96.912000000000006</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>106.07</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>100.925</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>85.403000000000006</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>114.22799999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>193.30699999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>76.646000000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>107.87</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>88.027000000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>133.85900000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>147.79499999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>83.382000000000005</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>105.274</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>151.816</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>78.034000000000006</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>146.31800000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>151.84200000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>117.002</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>169.09100000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>61.737000000000002</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>92.840999999999994</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>103.14100000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>135.68600000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>118.208</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>107.36799999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>72.686000000000007</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>172.99</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>175.36099999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>123.583</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>54.817</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>113.43899999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>114.968</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>129.54599999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>67.305999999999997</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>109.34</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>202.547</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>92.617000000000004</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>105.377</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>99.084000000000003</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>183.88399999999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>217.09</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>97.786000000000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>120.202</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>163.46100000000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>111.98099999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>132.27099999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>155.87799999999999</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>126.85599999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>191.316</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>51.314999999999998</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>82.786000000000001</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>62.423000000000002</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>170.76900000000001</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>129.94399999999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>81.275999999999996</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>76.177000000000007</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>162.77199999999999</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>181.732</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>112.967</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>68.042000000000002</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>102.709</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>114.81</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>123.32299999999999</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>93.989000000000004</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>111.52500000000001</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>190.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1CF1-6348-8691-71B01C553B48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="36728879"/>
+        <c:axId val="37139135"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="36728879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Powder</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> area</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="37139135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="37139135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Surface area</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="36728879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1533,6 +3453,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F3CD1E7-83EC-F443-BAB7-5C7A4AA4AF72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1741,28 +3699,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P31"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="5" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="11" width="10.5546875" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" customWidth="1"/>
-    <col min="17" max="26" width="10.5546875" customWidth="1"/>
+    <col min="4" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="26" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1822,7 +3780,7 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -1873,7 +3831,7 @@
       </c>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1924,7 +3882,7 @@
       </c>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -1975,7 +3933,7 @@
       </c>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -2026,7 +3984,7 @@
       </c>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
@@ -2077,7 +4035,7 @@
       </c>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
@@ -2128,7 +4086,7 @@
       </c>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -2179,7 +4137,7 @@
       </c>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
@@ -2230,7 +4188,7 @@
       </c>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
@@ -2281,7 +4239,7 @@
       </c>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
@@ -2332,7 +4290,7 @@
       </c>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
@@ -2383,7 +4341,7 @@
       </c>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
@@ -2434,7 +4392,7 @@
       </c>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
@@ -2485,7 +4443,7 @@
       </c>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>29</v>
       </c>
@@ -2536,7 +4494,7 @@
       </c>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>30</v>
       </c>
@@ -2587,7 +4545,7 @@
       </c>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:18" ht="15.75" customHeight="1">
+    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>31</v>
       </c>
@@ -2638,7 +4596,7 @@
       </c>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="1:18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>32</v>
       </c>
@@ -2689,7 +4647,7 @@
       </c>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:18" ht="15.75" customHeight="1">
+    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
@@ -2740,7 +4698,7 @@
       </c>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:18" ht="15.75" customHeight="1">
+    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>34</v>
       </c>
@@ -2791,7 +4749,7 @@
       </c>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="1:18" ht="15.75" customHeight="1">
+    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>35</v>
       </c>
@@ -2842,7 +4800,7 @@
       </c>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="1:18" ht="15.75" customHeight="1">
+    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>36</v>
       </c>
@@ -2893,7 +4851,7 @@
       </c>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="1:18" ht="15.75" customHeight="1">
+    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>37</v>
       </c>
@@ -2944,7 +4902,7 @@
       </c>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:18" ht="15.75" customHeight="1">
+    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>38</v>
       </c>
@@ -2995,7 +4953,7 @@
       </c>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:18" ht="15.75" customHeight="1">
+    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>39</v>
       </c>
@@ -3051,7 +5009,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15.75" customHeight="1">
+    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>42</v>
       </c>
@@ -3102,7 +5060,7 @@
       </c>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:18" ht="15.75" customHeight="1">
+    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>43</v>
       </c>
@@ -3153,7 +5111,7 @@
       </c>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:18" ht="15.75" customHeight="1">
+    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>44</v>
       </c>
@@ -3204,7 +5162,7 @@
       </c>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="1:18" ht="15.75" customHeight="1">
+    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>45</v>
       </c>
@@ -3255,7 +5213,7 @@
       </c>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:18" ht="15.75" customHeight="1">
+    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>46</v>
       </c>
@@ -3306,7 +5264,7 @@
       </c>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:18" ht="15.75" customHeight="1">
+    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
         <v>47</v>
       </c>
@@ -3357,7 +5315,7 @@
       </c>
       <c r="Q31" s="3"/>
     </row>
-    <row r="32" spans="1:18" ht="15.75" customHeight="1">
+    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3376,7 +5334,7 @@
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="1:17" ht="15.75" customHeight="1">
+    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3395,7 +5353,7 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="1:17" ht="15.75" customHeight="1">
+    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3414,7 +5372,7 @@
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="1:17" ht="15.75" customHeight="1">
+    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -3433,7 +5391,7 @@
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="1:17" ht="15.75" customHeight="1">
+    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -3452,970 +5410,970 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="38" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="39" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="40" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="41" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="42" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="43" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="44" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="45" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="46" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="47" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="48" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -4428,12 +6386,12 @@
   <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4453,7 +6411,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -4473,7 +6431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -4493,7 +6451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5">
+    <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -4513,7 +6471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75">
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -4533,7 +6491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75">
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
@@ -4553,7 +6511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75">
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
@@ -4573,7 +6531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75">
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -4593,7 +6551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75">
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
@@ -4613,7 +6571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75">
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
@@ -4633,7 +6591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75">
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
@@ -4653,7 +6611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75">
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
@@ -4673,7 +6631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="31.5">
+    <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
@@ -4693,7 +6651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5">
+    <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
@@ -4713,7 +6671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5">
+    <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>29</v>
       </c>
@@ -4733,7 +6691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="31.5">
+    <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>30</v>
       </c>
@@ -4753,7 +6711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75">
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>31</v>
       </c>
@@ -4773,7 +6731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75">
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>32</v>
       </c>
@@ -4793,7 +6751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75">
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
@@ -4813,7 +6771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="31.5">
+    <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>34</v>
       </c>
@@ -4833,7 +6791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75">
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>35</v>
       </c>
@@ -4853,7 +6811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75">
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>36</v>
       </c>
@@ -4873,7 +6831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75">
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>37</v>
       </c>
@@ -4893,7 +6851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75">
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>38</v>
       </c>
@@ -4913,7 +6871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="31.5">
+    <row r="25" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>39</v>
       </c>
@@ -4933,7 +6891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75">
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>42</v>
       </c>
@@ -4953,7 +6911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75">
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>43</v>
       </c>
@@ -4973,7 +6931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75">
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>44</v>
       </c>
@@ -4993,7 +6951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75">
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>45</v>
       </c>
@@ -5013,7 +6971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75">
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>46</v>
       </c>
@@ -5033,7 +6991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
         <v>47</v>
       </c>
@@ -5053,7 +7011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>16</v>
       </c>
@@ -5073,7 +7031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>17</v>
       </c>
@@ -5093,7 +7051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="31.5">
+    <row r="34" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>18</v>
       </c>
@@ -5113,7 +7071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75">
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>19</v>
       </c>
@@ -5133,7 +7091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75">
+    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>20</v>
       </c>
@@ -5153,7 +7111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75">
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>21</v>
       </c>
@@ -5173,7 +7131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75">
+    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>22</v>
       </c>
@@ -5193,7 +7151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75">
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>23</v>
       </c>
@@ -5213,7 +7171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75">
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>24</v>
       </c>
@@ -5233,7 +7191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75">
+    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>25</v>
       </c>
@@ -5253,7 +7211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75">
+    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>26</v>
       </c>
@@ -5273,7 +7231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="31.5">
+    <row r="43" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>27</v>
       </c>
@@ -5293,7 +7251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="31.5">
+    <row r="44" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>28</v>
       </c>
@@ -5313,7 +7271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="31.5">
+    <row r="45" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>29</v>
       </c>
@@ -5333,7 +7291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="31.5">
+    <row r="46" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>30</v>
       </c>
@@ -5353,7 +7311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75">
+    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>31</v>
       </c>
@@ -5373,7 +7331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75">
+    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>32</v>
       </c>
@@ -5393,7 +7351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75">
+    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>33</v>
       </c>
@@ -5413,7 +7371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="31.5">
+    <row r="50" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>34</v>
       </c>
@@ -5433,7 +7391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75">
+    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>35</v>
       </c>
@@ -5453,7 +7411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75">
+    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>36</v>
       </c>
@@ -5473,7 +7431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75">
+    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>37</v>
       </c>
@@ -5493,7 +7451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75">
+    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>38</v>
       </c>
@@ -5513,7 +7471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="31.5">
+    <row r="55" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>39</v>
       </c>
@@ -5533,7 +7491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75">
+    <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>42</v>
       </c>
@@ -5553,7 +7511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75">
+    <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>43</v>
       </c>
@@ -5573,7 +7531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75">
+    <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>44</v>
       </c>
@@ -5593,7 +7551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75">
+    <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>45</v>
       </c>
@@ -5613,7 +7571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75">
+    <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>46</v>
       </c>
@@ -5633,7 +7591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.75">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
         <v>47</v>
       </c>
@@ -5653,7 +7611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>16</v>
       </c>
@@ -5673,7 +7631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>17</v>
       </c>
@@ -5693,7 +7651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="31.5">
+    <row r="64" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>18</v>
       </c>
@@ -5713,7 +7671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75">
+    <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>19</v>
       </c>
@@ -5733,7 +7691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75">
+    <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>20</v>
       </c>
@@ -5753,7 +7711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.75">
+    <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>21</v>
       </c>
@@ -5773,7 +7731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75">
+    <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>22</v>
       </c>
@@ -5793,7 +7751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75">
+    <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>23</v>
       </c>
@@ -5813,7 +7771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75">
+    <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>24</v>
       </c>
@@ -5833,7 +7791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.75">
+    <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>25</v>
       </c>
@@ -5853,7 +7811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.75">
+    <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>26</v>
       </c>
@@ -5873,7 +7831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="31.5">
+    <row r="73" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>27</v>
       </c>
@@ -5893,7 +7851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="31.5">
+    <row r="74" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>28</v>
       </c>
@@ -5913,7 +7871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="31.5">
+    <row r="75" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>29</v>
       </c>
@@ -5933,7 +7891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="31.5">
+    <row r="76" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
         <v>30</v>
       </c>
@@ -5953,7 +7911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15.75">
+    <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>31</v>
       </c>
@@ -5973,7 +7931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.75">
+    <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>32</v>
       </c>
@@ -5993,7 +7951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.75">
+    <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>33</v>
       </c>
@@ -6013,7 +7971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="31.5">
+    <row r="80" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>34</v>
       </c>
@@ -6033,7 +7991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15.75">
+    <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>35</v>
       </c>
@@ -6053,7 +8011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15.75">
+    <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>36</v>
       </c>
@@ -6073,7 +8031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15.75">
+    <row r="83" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>37</v>
       </c>
@@ -6093,7 +8051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15.75">
+    <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>38</v>
       </c>
@@ -6113,7 +8071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="31.5">
+    <row r="85" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>39</v>
       </c>
@@ -6133,7 +8091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.75">
+    <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>42</v>
       </c>
@@ -6153,7 +8111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.75">
+    <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>43</v>
       </c>
@@ -6173,7 +8131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15.75">
+    <row r="88" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>44</v>
       </c>
@@ -6193,7 +8151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.75">
+    <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>45</v>
       </c>
@@ -6213,7 +8171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15.75">
+    <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>46</v>
       </c>
@@ -6233,7 +8191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15.75">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
         <v>47</v>
       </c>
@@ -6253,7 +8211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15.75">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>16</v>
       </c>
@@ -6273,7 +8231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15.75">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>17</v>
       </c>
@@ -6293,7 +8251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="31.5">
+    <row r="94" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>18</v>
       </c>
@@ -6313,7 +8271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15.75">
+    <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>19</v>
       </c>
@@ -6333,7 +8291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.75">
+    <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>20</v>
       </c>
@@ -6353,7 +8311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75">
+    <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>21</v>
       </c>
@@ -6373,7 +8331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75">
+    <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>22</v>
       </c>
@@ -6393,7 +8351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75">
+    <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>23</v>
       </c>
@@ -6413,7 +8371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.75">
+    <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>24</v>
       </c>
@@ -6433,7 +8391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75">
+    <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>25</v>
       </c>
@@ -6453,7 +8411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75">
+    <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>26</v>
       </c>
@@ -6473,7 +8431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="31.5">
+    <row r="103" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>27</v>
       </c>
@@ -6493,7 +8451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="31.5">
+    <row r="104" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>28</v>
       </c>
@@ -6513,7 +8471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="31.5">
+    <row r="105" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>29</v>
       </c>
@@ -6533,7 +8491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="31.5">
+    <row r="106" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>30</v>
       </c>
@@ -6553,7 +8511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15.75">
+    <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
         <v>31</v>
       </c>
@@ -6573,7 +8531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75">
+    <row r="108" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
         <v>32</v>
       </c>
@@ -6593,7 +8551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15.75">
+    <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>33</v>
       </c>
@@ -6613,7 +8571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="31.5">
+    <row r="110" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
         <v>34</v>
       </c>
@@ -6633,7 +8591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15.75">
+    <row r="111" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
         <v>35</v>
       </c>
@@ -6653,7 +8611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15.75">
+    <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>36</v>
       </c>
@@ -6673,7 +8631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15.75">
+    <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>37</v>
       </c>
@@ -6693,7 +8651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15.75">
+    <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
         <v>38</v>
       </c>
@@ -6713,7 +8671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="31.5">
+    <row r="115" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>39</v>
       </c>
@@ -6733,7 +8691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15.75">
+    <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
         <v>42</v>
       </c>
@@ -6753,7 +8711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15.75">
+    <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>43</v>
       </c>
@@ -6773,7 +8731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15.75">
+    <row r="118" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
         <v>44</v>
       </c>
@@ -6793,7 +8751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15.75">
+    <row r="119" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
         <v>45</v>
       </c>
@@ -6813,7 +8771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15.75">
+    <row r="120" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
         <v>46</v>
       </c>
@@ -6833,7 +8791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15.75">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="15" t="s">
         <v>47</v>
       </c>
@@ -6853,7 +8811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15.75">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
         <v>16</v>
       </c>
@@ -6873,7 +8831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15.75">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>17</v>
       </c>
@@ -6893,7 +8851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="31.5">
+    <row r="124" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
         <v>18</v>
       </c>
@@ -6913,7 +8871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15.75">
+    <row r="125" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
         <v>19</v>
       </c>
@@ -6933,7 +8891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15.75">
+    <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
         <v>20</v>
       </c>
@@ -6953,7 +8911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15.75">
+    <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
         <v>21</v>
       </c>
@@ -6973,7 +8931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15.75">
+    <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
         <v>22</v>
       </c>
@@ -6993,7 +8951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15.75">
+    <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>23</v>
       </c>
@@ -7013,7 +8971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15.75">
+    <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>24</v>
       </c>
@@ -7033,7 +8991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15.75">
+    <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>25</v>
       </c>
@@ -7053,7 +9011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="15.75">
+    <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>26</v>
       </c>
@@ -7073,7 +9031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="31.5">
+    <row r="133" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
         <v>27</v>
       </c>
@@ -7093,7 +9051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="31.5">
+    <row r="134" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
         <v>28</v>
       </c>
@@ -7113,7 +9071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="31.5">
+    <row r="135" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>29</v>
       </c>
@@ -7133,7 +9091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="31.5">
+    <row r="136" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
         <v>30</v>
       </c>
@@ -7153,7 +9111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="15.75">
+    <row r="137" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
         <v>31</v>
       </c>
@@ -7173,7 +9131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15.75">
+    <row r="138" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
         <v>32</v>
       </c>
@@ -7193,7 +9151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="15.75">
+    <row r="139" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
         <v>33</v>
       </c>
@@ -7213,7 +9171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="31.5">
+    <row r="140" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
         <v>34</v>
       </c>
@@ -7233,7 +9191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="15.75">
+    <row r="141" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
         <v>35</v>
       </c>
@@ -7253,7 +9211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="15.75">
+    <row r="142" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
         <v>36</v>
       </c>
@@ -7273,7 +9231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="15.75">
+    <row r="143" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
         <v>37</v>
       </c>
@@ -7293,7 +9251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="15.75">
+    <row r="144" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
         <v>38</v>
       </c>
@@ -7313,7 +9271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="31.5">
+    <row r="145" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>39</v>
       </c>
@@ -7333,7 +9291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="15.75">
+    <row r="146" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
         <v>42</v>
       </c>
@@ -7353,7 +9311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="15.75">
+    <row r="147" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
         <v>43</v>
       </c>
@@ -7373,7 +9331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="15.75">
+    <row r="148" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
         <v>44</v>
       </c>
@@ -7393,7 +9351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="15.75">
+    <row r="149" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
         <v>45</v>
       </c>
@@ -7413,7 +9371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="15.75">
+    <row r="150" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
         <v>46</v>
       </c>
@@ -7433,7 +9391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="15.75">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="15" t="s">
         <v>47</v>
       </c>
